--- a/final_project/Python/최종데이터.xlsx
+++ b/final_project/Python/최종데이터.xlsx
@@ -342,7 +342,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -393,14 +393,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -584,7 +584,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -593,7 +593,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -875,8 +875,8 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:BV227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BU227" sqref="BU227"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BK38" sqref="BK38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="9">
-        <v>58903</v>
+        <v>0</v>
       </c>
       <c r="BL22" s="10">
         <v>0</v>
@@ -6059,218 +6059,220 @@
       <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
         <v>885</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>1341</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="7">
         <v>1242</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="7">
         <v>655</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="7">
         <v>612</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="7">
         <v>1268</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="7">
         <v>254</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="7">
         <v>1249</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="7">
         <v>1079</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="7">
         <v>852</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="7">
         <v>1032</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="8">
         <v>945</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="8">
         <v>593</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="8">
         <v>1064</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="8">
         <v>1505</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="8">
         <v>1522</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="8">
         <v>1560</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24" s="8">
         <v>1399</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24" s="8">
         <v>1313</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="8">
         <v>542</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="8">
         <v>934</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Y24" s="8">
         <v>1578</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="Z24" s="8">
         <v>1057</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24" s="7">
         <v>267</v>
       </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF24" s="2">
+      <c r="AB24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="8">
         <v>977</v>
       </c>
-      <c r="BG24" s="2">
+      <c r="BG24" s="8">
         <v>406</v>
       </c>
-      <c r="BH24" s="2">
+      <c r="BH24" s="8">
         <v>204</v>
       </c>
-      <c r="BI24" s="2">
+      <c r="BI24" s="8">
         <v>419</v>
       </c>
-      <c r="BJ24" s="2">
+      <c r="BJ24" s="8">
         <v>214</v>
       </c>
-      <c r="BK24" s="5">
+      <c r="BK24" s="9">
         <v>95363</v>
       </c>
-      <c r="BL24" s="5">
+      <c r="BL24" s="9">
         <v>259</v>
       </c>
-      <c r="BM24" s="6">
-        <v>0</v>
-      </c>
-      <c r="BN24" s="6">
-        <v>0</v>
-      </c>
-      <c r="BO24" s="5">
+      <c r="BM24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="9">
         <v>204</v>
       </c>
-      <c r="BP24" s="5">
+      <c r="BP24" s="9">
         <v>768</v>
       </c>
-      <c r="BQ24" s="5">
+      <c r="BQ24" s="9">
         <v>758</v>
       </c>
-      <c r="BR24" s="5">
+      <c r="BR24" s="9">
         <v>426</v>
       </c>
-      <c r="BS24" s="6">
-        <v>0</v>
-      </c>
-      <c r="BT24" s="6">
+      <c r="BS24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="10">
         <v>202</v>
       </c>
-      <c r="BU24" s="6">
-        <v>0</v>
-      </c>
-      <c r="BV24" s="6">
+      <c r="BU24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="10">
         <v>505</v>
       </c>
     </row>
@@ -6530,6 +6532,9 @@
         <v>1292243</v>
       </c>
       <c r="K26" s="1">
+        <v>151745</v>
+      </c>
+      <c r="L26" s="1">
         <v>151745</v>
       </c>
       <c r="M26" s="1">
